--- a/biology/Zoologie/Cottus/Cottus.xlsx
+++ b/biology/Zoologie/Cottus/Cottus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cottus est un genre de poissons dont certaines espèces sont connues sous le nom de chabot.
-Avec la mise en relation artificielle de la plupart des grands bassins versants par les canaux, des problèmes d'hybridation et de pollution génétique semblent en cours chez ces poissons, dont en Europe, dans le Rhin par exemple[1].
+Avec la mise en relation artificielle de la plupart des grands bassins versants par les canaux, des problèmes d'hybridation et de pollution génétique semblent en cours chez ces poissons, dont en Europe, dans le Rhin par exemple.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cottus aleuticus Gilbert, 1896
